--- a/Base/Teams/Packers/Target Depth Data.xlsx
+++ b/Base/Teams/Packers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="C2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Packers/Target Depth Data.xlsx
+++ b/Base/Teams/Packers/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="C3">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="C3">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>9</v>

--- a/Base/Teams/Packers/Target Depth Data.xlsx
+++ b/Base/Teams/Packers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="C2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Packers/Target Depth Data.xlsx
+++ b/Base/Teams/Packers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="C2">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="C2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>8</v>

--- a/Base/Teams/Packers/Target Depth Data.xlsx
+++ b/Base/Teams/Packers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="C2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>12</v>
